--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Work Day</t>
   </si>
   <si>
-    <t>Dropdown scrollbar</t>
-  </si>
-  <si>
     <t>Table customise</t>
   </si>
   <si>
@@ -257,12 +254,6 @@
     <t>UI test of Advanced page may start from here</t>
   </si>
   <si>
-    <t>UI test of Details page starts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI test of entire front end development starts </t>
-  </si>
-  <si>
     <t>Back end ( Remarks only )</t>
   </si>
   <si>
@@ -275,7 +266,10 @@
     <t>Organise/format/validate/sanitize all input values for remote request - both basic and advanced searches</t>
   </si>
   <si>
-    <t>The back end of node.js should at least be divided into 2 layers. Use a Model/Controller architecture.
+    <t>This is a reusable UI control, also used in Transaction Details Page</t>
+  </si>
+  <si>
+    <t>The back end should at least be divided into 2 layers. Use a Model/Controller architecture.
 1. At the controller layer, it handles requests sent from the user agent( web browser, mobile browser, or programable HTTP requests ). 
 2. At the model layer, it mainly works with database. And other data,  either static or dynamic, for example, 
 Eg.1 a map between Transaction ID and types, and/or
@@ -304,7 +298,40 @@
 Model Layer architecture - TBD</t>
   </si>
   <si>
-    <t>This is a reusable UI control, also used in Details Page</t>
+    <t>Dropdown scrollbar( third party UI controller )</t>
+  </si>
+  <si>
+    <t>Test should be at least devided into 3 stages
+1. UI test
+2. Server test
+3. Integration test
+UI test stage target:
+0. Ideally, a dummy server should be created for UI test purpose. The dummy server has the capbilities of handling all requests. However dummy server only uses dummy data generated in the code other than from database. The only difference between a dummy server and a real server is in the model layer. The controller layer should be nearly identical.
+1. Validate functionality of every UI control works as expected, TexBox, Dropdown, Table, etc.
+2. Validate page's layout and pages' routing
+3. Cross browser ability
+Server (Back end ) test target:
+0. The server side's test should be performed without UI's intervention. A copy of real database should be setup. Test scripts should be created for regression test purpose. 
+1. Validate that user's input is sanitised.
+2. Validate that appropriate redirection is performed.
+3. Validate that error is correctedly generated.
+4. Validate that correct data is obtained from database.
+5. Validate that database is successfully updated
+6. Validate that user is authenticated.
+7. Validate that user's session has expired and related action performed.
+8. Performance test. Check CPU, memory, database, network, etc.
+9. Stress test. Generate random and concurrent requests to the server over the network.
+Integration test target
+0. Based on former UI and server tests. If both were successful, then the integration test is relatively easy. Baisically it tests in a real envirionment, a user can operate at the browser to login, logout, get the data, see the error and update the data, see the result of the update, etc.</t>
+  </si>
+  <si>
+    <t>Test ( Plan )</t>
+  </si>
+  <si>
+    <t>UI test of entire front end development may start</t>
+  </si>
+  <si>
+    <t>UI test of Details page may start</t>
   </si>
 </sst>
 </file>
@@ -357,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -380,29 +407,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -435,15 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -453,9 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -465,26 +462,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,45 +824,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F12"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>42899</v>
       </c>
@@ -859,15 +876,18 @@
         <v>Tuesday</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42900</v>
       </c>
@@ -876,15 +896,16 @@
         <v>Wednesday</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42901</v>
       </c>
@@ -893,13 +914,14 @@
         <v>Thursday</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42902</v>
       </c>
@@ -908,13 +930,14 @@
         <v>Friday</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42903</v>
       </c>
@@ -922,10 +945,12 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42904</v>
       </c>
@@ -933,10 +958,12 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42905</v>
       </c>
@@ -945,13 +972,14 @@
         <v>Monday</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42906</v>
       </c>
@@ -960,13 +988,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42907</v>
       </c>
@@ -975,13 +1004,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42908</v>
       </c>
@@ -990,13 +1020,14 @@
         <v>Thursday</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>42909</v>
       </c>
@@ -1005,13 +1036,14 @@
         <v>Friday</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42910</v>
       </c>
@@ -1020,11 +1052,13 @@
         <v>Saturday</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42911</v>
       </c>
@@ -1033,9 +1067,11 @@
         <v>Sunday</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42912</v>
       </c>
@@ -1044,13 +1080,14 @@
         <v>Monday</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>42913</v>
       </c>
@@ -1059,13 +1096,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>42914</v>
       </c>
@@ -1074,13 +1112,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>42915</v>
       </c>
@@ -1089,13 +1128,14 @@
         <v>Thursday</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>42916</v>
       </c>
@@ -1104,13 +1144,14 @@
         <v>Friday</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42917</v>
       </c>
@@ -1119,11 +1160,13 @@
         <v>Saturday</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42918</v>
       </c>
@@ -1131,9 +1174,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>42919</v>
       </c>
@@ -1142,13 +1187,14 @@
         <v>Monday</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>42920</v>
       </c>
@@ -1157,13 +1203,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>42921</v>
       </c>
@@ -1172,13 +1219,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>42922</v>
       </c>
@@ -1187,13 +1235,14 @@
         <v>Thursday</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>42923</v>
       </c>
@@ -1202,13 +1251,14 @@
         <v>Friday</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42924</v>
       </c>
@@ -1216,9 +1266,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42925</v>
       </c>
@@ -1226,9 +1278,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42926</v>
       </c>
@@ -1237,13 +1291,14 @@
         <v>Monday</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>42927</v>
       </c>
@@ -1252,13 +1307,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>42928</v>
       </c>
@@ -1267,13 +1323,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>42929</v>
       </c>
@@ -1282,13 +1339,14 @@
         <v>Thursday</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42930</v>
       </c>
@@ -1297,13 +1355,14 @@
         <v>Friday</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42931</v>
       </c>
@@ -1311,9 +1370,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42932</v>
       </c>
@@ -1321,9 +1382,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>42933</v>
       </c>
@@ -1332,13 +1395,14 @@
         <v>Monday</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>42934</v>
       </c>
@@ -1347,13 +1411,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>42935</v>
       </c>
@@ -1362,13 +1427,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42936</v>
       </c>
@@ -1377,13 +1443,14 @@
         <v>Thursday</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>42937</v>
       </c>
@@ -1392,13 +1459,14 @@
         <v>Friday</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42938</v>
       </c>
@@ -1406,9 +1474,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42939</v>
       </c>
@@ -1416,9 +1486,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="D42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42940</v>
       </c>
@@ -1427,13 +1499,14 @@
         <v>Monday</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42941</v>
       </c>
@@ -1442,13 +1515,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42942</v>
       </c>
@@ -1457,13 +1531,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>42943</v>
       </c>
@@ -1472,13 +1547,14 @@
         <v>Thursday</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42944</v>
       </c>
@@ -1487,15 +1563,16 @@
         <v>Friday</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42945</v>
       </c>
@@ -1504,9 +1581,11 @@
         <v>Saturday</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42946</v>
       </c>
@@ -1515,9 +1594,11 @@
         <v>Sunday</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42947</v>
       </c>
@@ -1526,15 +1607,16 @@
         <v>Monday</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42948</v>
       </c>
@@ -1543,13 +1625,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:8" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>42949</v>
       </c>
@@ -1558,15 +1641,16 @@
         <v>Wednesday</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42950</v>
       </c>
@@ -1575,15 +1659,16 @@
         <v>Thursday</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>42951</v>
       </c>
@@ -1592,13 +1677,14 @@
         <v>Friday</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42952</v>
       </c>
@@ -1607,9 +1693,10 @@
         <v>Saturday</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42953</v>
       </c>
@@ -1618,9 +1705,10 @@
         <v>Sunday</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="27"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42954</v>
       </c>
@@ -1629,13 +1717,14 @@
         <v>Monday</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>42955</v>
       </c>
@@ -1644,13 +1733,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="26"/>
+        <v>38</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>42956</v>
       </c>
@@ -1659,13 +1749,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>42957</v>
       </c>
@@ -1674,13 +1765,14 @@
         <v>Thursday</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>42958</v>
       </c>
@@ -1689,13 +1781,14 @@
         <v>Friday</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42959</v>
       </c>
@@ -1704,9 +1797,10 @@
         <v>Saturday</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="27"/>
-    </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42960</v>
       </c>
@@ -1715,9 +1809,10 @@
         <v>Sunday</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>42961</v>
       </c>
@@ -1726,13 +1821,14 @@
         <v>Monday</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>42962</v>
       </c>
@@ -1741,13 +1837,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>42963</v>
       </c>
@@ -1756,13 +1853,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>42964</v>
       </c>
@@ -1771,15 +1869,16 @@
         <v>Thursday</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>42965</v>
       </c>
@@ -1788,13 +1887,14 @@
         <v>Friday</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42966</v>
       </c>
@@ -1802,9 +1902,10 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="D69" s="27"/>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42967</v>
       </c>
@@ -1812,9 +1913,10 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="D70" s="27"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>42968</v>
       </c>
@@ -1823,13 +1925,14 @@
         <v>Monday</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>42969</v>
       </c>
@@ -1838,13 +1941,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>42970</v>
       </c>
@@ -1853,13 +1957,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>42971</v>
       </c>
@@ -1868,13 +1973,14 @@
         <v>Thursday</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42972</v>
       </c>
@@ -1883,13 +1989,14 @@
         <v>Friday</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+    </row>
+    <row r="76" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42973</v>
       </c>
@@ -1898,9 +2005,10 @@
         <v>Saturday</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="27"/>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42974</v>
       </c>
@@ -1909,9 +2017,10 @@
         <v>Sunday</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="27"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>42975</v>
       </c>
@@ -1920,13 +2029,14 @@
         <v>Monday</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>42976</v>
       </c>
@@ -1935,13 +2045,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>42977</v>
       </c>
@@ -1950,15 +2061,16 @@
         <v>Wednesday</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42978</v>
       </c>
@@ -1967,13 +2079,14 @@
         <v>Thursday</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+    </row>
+    <row r="82" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>42979</v>
       </c>
@@ -1982,15 +2095,16 @@
         <v>Friday</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42980</v>
       </c>
@@ -1999,9 +2113,10 @@
         <v>Saturday</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="27"/>
-    </row>
-    <row r="84" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42981</v>
       </c>
@@ -2010,9 +2125,10 @@
         <v>Sunday</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="27"/>
-    </row>
-    <row r="85" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>42982</v>
       </c>
@@ -2021,13 +2137,14 @@
         <v>Monday</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>42983</v>
       </c>
@@ -2036,15 +2153,16 @@
         <v>Tuesday</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42984</v>
       </c>
@@ -2053,13 +2171,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>42985</v>
       </c>
@@ -2068,13 +2187,14 @@
         <v>Thursday</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F88" s="25"/>
+      <c r="G88" s="26"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>42986</v>
       </c>
@@ -2083,13 +2203,14 @@
         <v>Friday</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D89" s="26"/>
+        <v>63</v>
+      </c>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42987</v>
       </c>
@@ -2098,9 +2219,10 @@
         <v>Saturday</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42988</v>
       </c>
@@ -2109,9 +2231,10 @@
         <v>Sunday</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="27"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>42989</v>
       </c>
@@ -2120,13 +2243,14 @@
         <v>Monday</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42990</v>
       </c>
@@ -2135,13 +2259,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>42991</v>
       </c>
@@ -2150,13 +2275,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>42992</v>
       </c>
@@ -2165,13 +2291,14 @@
         <v>Thursday</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" s="26"/>
+        <v>69</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
+    </row>
+    <row r="96" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>42993</v>
       </c>
@@ -2180,15 +2307,16 @@
         <v>Friday</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42994</v>
       </c>
@@ -2197,9 +2325,10 @@
         <v>Saturday</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="27"/>
-    </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42995</v>
       </c>
@@ -2208,9 +2337,10 @@
         <v>Sunday</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="27"/>
-    </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>42996</v>
       </c>
@@ -2219,47 +2349,50 @@
         <v>Monday</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="19">
+        <v>60</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
         <v>42997</v>
       </c>
-      <c r="B100" s="20" t="str">
+      <c r="B100" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="19">
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
         <v>42998</v>
       </c>
-      <c r="B101" s="20" t="str">
+      <c r="B101" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C101" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C101" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>42999</v>
       </c>
@@ -2268,13 +2401,14 @@
         <v>Thursday</v>
       </c>
       <c r="C102" s="7"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>43000</v>
       </c>
@@ -2283,11 +2417,12 @@
         <v>Friday</v>
       </c>
       <c r="C103" s="7"/>
-      <c r="D103" s="26"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43001</v>
       </c>
@@ -2296,9 +2431,10 @@
         <v>Saturday</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="D104" s="27"/>
-    </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43002</v>
       </c>
@@ -2307,9 +2443,10 @@
         <v>Sunday</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="27"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>43003</v>
       </c>
@@ -2318,11 +2455,12 @@
         <v>Monday</v>
       </c>
       <c r="C106" s="7"/>
-      <c r="D106" s="26"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>43004</v>
       </c>
@@ -2331,11 +2469,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C107" s="7"/>
-      <c r="D107" s="26"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>43005</v>
       </c>
@@ -2344,11 +2483,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="26"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>43006</v>
       </c>
@@ -2357,11 +2497,12 @@
         <v>Thursday</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="26"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>43007</v>
       </c>
@@ -2370,11 +2511,12 @@
         <v>Friday</v>
       </c>
       <c r="C110" s="7"/>
-      <c r="D110" s="28"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43008</v>
       </c>
@@ -2383,6 +2525,8 @@
         <v>Saturday</v>
       </c>
       <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B111">
@@ -2396,9 +2540,10 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="D2:D110"/>
+  <mergeCells count="3">
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="F2:F110"/>
+    <mergeCell ref="G2:G110"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B111">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace-web\mdh\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busheng.xi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Quick Search</t>
   </si>
   <si>
-    <t>Clear all fields</t>
-  </si>
-  <si>
     <t>Loading state of search</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Textbox design with title and value in same box</t>
   </si>
   <si>
-    <t>Quick search presentation, value being selected on all input boxes</t>
-  </si>
-  <si>
     <t>Time box select options</t>
   </si>
   <si>
@@ -267,35 +261,6 @@
   </si>
   <si>
     <t>This is a reusable UI control, also used in Transaction Details Page</t>
-  </si>
-  <si>
-    <t>The back end should at least be divided into 2 layers. Use a Model/Controller architecture.
-1. At the controller layer, it handles requests sent from the user agent( web browser, mobile browser, or programable HTTP requests ). 
-2. At the model layer, it mainly works with database. And other data,  either static or dynamic, for example, 
-Eg.1 a map between Transaction ID and types, and/or
-Eg.2 a map between Service order types and sub-types
-should also be in model layer.
-Controller layer purpose:
-1. Handles requests of normal data queries, eg. transactions, transaction details, transaction status
-2. Handle users relevant requests, eg. user' profile. 
-3. Handle user's status, eg. login/logout, online, login timeout, etc.
-4. Handle user agent's status, eg. clear browser cookie, browser cache, browser being closed, etc.
-5. Handle user input errors, invalid user input, unsafe data, malicious data, etc.
-6. Handle server errors, 404, 500, etc.
-Controller architecture - multiple layers
-Layer 1: Validate and sanitise requests
-Layer 2: Detect user agents, make redirections, handle cookies, etc
-Layer 3: Add global response headers
-Layer 4: Handle each mapping requests
-Layer 5: Add analytical and/or statistical code( if applicable )
-Model Layer purpose:
-0. Do not use ORM. Ideally, each request from Controller layer should be completed by only one SQL query or one database transaction.
-1. Every request must only get/update the data of database from model layer( model module ).
-2. Manage database connections, eg. connection pool
-3. Manage data cache.
-4. Obtain data from database and make it into desired format
-5. Use data from controller layer to update the database.
-Model Layer architecture - TBD</t>
   </si>
   <si>
     <t>Dropdown scrollbar( third party UI controller )</t>
@@ -332,6 +297,39 @@
   </si>
   <si>
     <t>UI test of Details page may start</t>
+  </si>
+  <si>
+    <t>The back end should at least be divided into 2 layers. Use a Model/Controller architecture.
+1. At the controller layer, it handles requests sent from the user agent( web browser, mobile browser, or programable HTTP requests ). 
+2. At the model layer, it mainly works with database. And other data,  either static or dynamic, for example, 
+Eg.1 a map between Transaction ID and types, and/or
+Eg.2 a map between Service order types and sub-types
+should also be in model layer.
+Controller layer purpose:
+1. Handles requests of normal data queries, eg. transactions, transaction details, transaction status
+2. Handle users relevant requests, eg. user' profile. 
+3. Handle user's status, eg. login/logout, online, login timeout, etc.
+4. Handle user agent's status, eg. clear browser cookie, browser cache, browser being closed, etc.
+5. Handle user input errors, invalid user input, unsafe data, malicious data, etc.
+6. Handle server errors, 404, 500, etc.
+Controller architecture - multiple layers - life cycle.
+Layer 1: Authentication and authorisation
+Layer 2: Validate and sanitise requests
+Layer 3: Detect headers, decide if data should be pulled from database or use browsers's local data, make redirections, handle cookies, etc
+Layer 4: Request data from model layer - Model layer should decdide to use a cached version or perform queries to database
+Layer 5: Add global response headers
+Layer 6: Add analytical and/or statistical code( if applicable )
+Model Layer purpose:
+0. Do not use ORM. Ideally, each request from Controller layer should be completed by only one SQL query or one database transaction.
+1. Every request must only get/update the data of database from model layer( model module ).
+2. Manage database connections, eg. connection pool
+3. Manage data cache.
+4. Obtain data from database and make it into desired format
+5. Use data from controller layer to update the database.
+Model Layer architecture - TBD</t>
+  </si>
+  <si>
+    <t>Clear all fields - from UI, data layer, local storage</t>
   </si>
 </sst>
 </file>
@@ -462,40 +460,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -826,25 +824,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="15.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -852,19 +850,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>76</v>
+      <c r="F1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,15 +874,15 @@
         <v>Tuesday</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>82</v>
+      <c r="F2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,11 +897,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -917,9 +915,9 @@
         <v>5</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -933,9 +931,9 @@
         <v>5</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -945,9 +943,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,9 +956,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,9 +973,9 @@
         <v>3</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -991,9 +989,9 @@
         <v>3</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1007,9 +1005,9 @@
         <v>3</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1023,9 +1021,9 @@
         <v>4</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1039,9 +1037,9 @@
         <v>4</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1054,8 +1052,8 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,8 +1065,8 @@
         <v>Sunday</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,8 +1082,8 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1100,10 +1098,10 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>42914</v>
       </c>
@@ -1112,12 +1110,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1128,12 +1126,12 @@
         <v>Thursday</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1144,12 +1142,12 @@
         <v>Friday</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1160,10 +1158,10 @@
         <v>Saturday</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,8 +1172,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,12 +1185,12 @@
         <v>Monday</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1203,12 +1201,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1219,12 +1217,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1235,12 +1233,12 @@
         <v>Thursday</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1251,12 +1249,12 @@
         <v>Friday</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1266,8 +1264,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,8 +1276,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,12 +1289,12 @@
         <v>Monday</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1307,12 +1305,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1323,12 +1321,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1339,14 +1337,14 @@
         <v>Thursday</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42930</v>
       </c>
@@ -1355,12 +1353,12 @@
         <v>Friday</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1370,8 +1368,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,8 +1380,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,12 +1393,12 @@
         <v>Monday</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1411,12 +1409,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1427,12 +1425,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1443,12 +1441,12 @@
         <v>Thursday</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1459,12 +1457,12 @@
         <v>Friday</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1474,8 +1472,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,8 +1484,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1499,12 +1497,12 @@
         <v>Monday</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1515,12 +1513,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1531,12 +1529,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1547,14 +1545,14 @@
         <v>Thursday</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:8" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42944</v>
       </c>
@@ -1563,14 +1561,14 @@
         <v>Friday</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1581,8 +1579,8 @@
         <v>Saturday</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,8 +1592,8 @@
         <v>Sunday</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1607,14 +1605,14 @@
         <v>Monday</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1625,14 +1623,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" spans="1:8" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>42949</v>
       </c>
@@ -1641,14 +1639,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1659,14 +1657,14 @@
         <v>Thursday</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1677,12 +1675,12 @@
         <v>Friday</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1693,8 +1691,8 @@
         <v>Saturday</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1705,8 +1703,8 @@
         <v>Sunday</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1717,12 +1715,12 @@
         <v>Monday</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1733,12 +1731,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1749,12 +1747,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1765,12 +1763,12 @@
         <v>Thursday</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1781,12 +1779,12 @@
         <v>Friday</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1797,8 +1795,8 @@
         <v>Saturday</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1809,8 +1807,8 @@
         <v>Sunday</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1821,12 +1819,12 @@
         <v>Monday</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1837,12 +1835,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1853,12 +1851,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -1869,14 +1867,14 @@
         <v>Thursday</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -1887,12 +1885,12 @@
         <v>Friday</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1902,8 +1900,8 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1913,8 +1911,8 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -1925,12 +1923,12 @@
         <v>Monday</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -1941,12 +1939,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -1957,12 +1955,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -1973,12 +1971,12 @@
         <v>Thursday</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -1989,12 +1987,12 @@
         <v>Friday</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
     </row>
     <row r="76" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -2005,8 +2003,8 @@
         <v>Saturday</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -2017,8 +2015,8 @@
         <v>Sunday</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -2029,12 +2027,12 @@
         <v>Monday</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -2045,12 +2043,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -2061,14 +2059,14 @@
         <v>Wednesday</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -2079,14 +2077,14 @@
         <v>Thursday</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-    </row>
-    <row r="82" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+    </row>
+    <row r="82" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>42979</v>
       </c>
@@ -2095,14 +2093,14 @@
         <v>Friday</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -2113,8 +2111,8 @@
         <v>Saturday</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2125,10 +2123,10 @@
         <v>Sunday</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="28"/>
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>42982</v>
       </c>
@@ -2137,12 +2135,12 @@
         <v>Monday</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
     </row>
     <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2153,14 +2151,14 @@
         <v>Tuesday</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -2171,12 +2169,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2187,12 +2185,12 @@
         <v>Thursday</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="26"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -2203,12 +2201,12 @@
         <v>Friday</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
     </row>
     <row r="90" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -2219,8 +2217,8 @@
         <v>Saturday</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -2231,8 +2229,8 @@
         <v>Sunday</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2243,12 +2241,12 @@
         <v>Monday</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -2259,12 +2257,12 @@
         <v>Tuesday</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -2275,12 +2273,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="26"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2291,14 +2289,14 @@
         <v>Thursday</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
-    </row>
-    <row r="96" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+    </row>
+    <row r="96" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>42993</v>
       </c>
@@ -2307,14 +2305,14 @@
         <v>Friday</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
     </row>
     <row r="97" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -2325,8 +2323,8 @@
         <v>Saturday</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -2337,8 +2335,8 @@
         <v>Sunday</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2349,16 +2347,16 @@
         <v>Monday</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E99" s="7"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
-    </row>
-    <row r="100" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+    </row>
+    <row r="100" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>42997</v>
       </c>
@@ -2367,16 +2365,16 @@
         <v>Tuesday</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
-    </row>
-    <row r="101" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+    </row>
+    <row r="101" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>42998</v>
       </c>
@@ -2385,12 +2383,12 @@
         <v>Wednesday</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
     </row>
     <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -2402,11 +2400,11 @@
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E102" s="7"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="26"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -2419,8 +2417,8 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
     </row>
     <row r="104" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2431,8 +2429,8 @@
         <v>Saturday</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29"/>
     </row>
     <row r="105" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -2443,8 +2441,8 @@
         <v>Sunday</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -2457,8 +2455,8 @@
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="26"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
@@ -2471,8 +2469,8 @@
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="26"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2485,8 +2483,8 @@
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -2499,8 +2497,8 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="26"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -2513,8 +2511,8 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
     </row>
     <row r="111" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busheng.xi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace-web\mdh\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -331,6 +331,9 @@
   <si>
     <t>Clear all fields - from UI, data layer, local storage</t>
   </si>
+  <si>
+    <t>State ( Green is done, yellow is not required )</t>
+  </si>
 </sst>
 </file>
 
@@ -356,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +381,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -494,6 +509,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -822,11 +843,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,15 +855,16 @@
     <col min="1" max="1" width="15.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="24" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="4" max="4" width="5.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -853,19 +875,22 @@
         <v>75</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>42899</v>
       </c>
@@ -876,16 +901,17 @@
       <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42900</v>
       </c>
@@ -897,13 +923,14 @@
         <v>7</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42901</v>
       </c>
@@ -914,12 +941,13 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42902</v>
       </c>
@@ -930,12 +958,13 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42903</v>
       </c>
@@ -943,12 +972,12 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42904</v>
       </c>
@@ -956,12 +985,12 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="26"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42905</v>
       </c>
@@ -972,12 +1001,13 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42906</v>
       </c>
@@ -988,12 +1018,13 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42907</v>
       </c>
@@ -1004,12 +1035,13 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42908</v>
       </c>
@@ -1020,12 +1052,13 @@
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>42909</v>
       </c>
@@ -1036,12 +1069,13 @@
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="27"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42910</v>
       </c>
@@ -1052,11 +1086,12 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42911</v>
       </c>
@@ -1065,11 +1100,12 @@
         <v>Sunday</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42912</v>
       </c>
@@ -1080,12 +1116,13 @@
       <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>42913</v>
       </c>
@@ -1096,12 +1133,13 @@
       <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>42914</v>
       </c>
@@ -1114,10 +1152,11 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>42915</v>
       </c>
@@ -1130,10 +1169,11 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>42916</v>
       </c>
@@ -1146,10 +1186,11 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42917</v>
       </c>
@@ -1160,11 +1201,12 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42918</v>
       </c>
@@ -1172,11 +1214,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>42919</v>
       </c>
@@ -1189,10 +1231,11 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>42920</v>
       </c>
@@ -1205,10 +1248,11 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>42921</v>
       </c>
@@ -1221,10 +1265,11 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>42922</v>
       </c>
@@ -1235,12 +1280,13 @@
       <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>42923</v>
       </c>
@@ -1251,12 +1297,13 @@
       <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42924</v>
       </c>
@@ -1264,11 +1311,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42925</v>
       </c>
@@ -1276,11 +1323,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42926</v>
       </c>
@@ -1291,12 +1338,13 @@
       <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>42927</v>
       </c>
@@ -1309,10 +1357,11 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>42928</v>
       </c>
@@ -1325,10 +1374,11 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>42929</v>
       </c>
@@ -1341,10 +1391,11 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>42930</v>
       </c>
@@ -1357,10 +1408,11 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="27"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42931</v>
       </c>
@@ -1368,11 +1420,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42932</v>
       </c>
@@ -1380,11 +1432,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>42933</v>
       </c>
@@ -1397,10 +1449,11 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>42934</v>
       </c>
@@ -1413,10 +1466,11 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>42935</v>
       </c>
@@ -1427,12 +1481,13 @@
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>42936</v>
       </c>
@@ -1445,10 +1500,11 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>42937</v>
       </c>
@@ -1461,10 +1517,11 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42938</v>
       </c>
@@ -1472,11 +1529,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42939</v>
       </c>
@@ -1484,11 +1541,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42940</v>
       </c>
@@ -1501,10 +1558,11 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42941</v>
       </c>
@@ -1517,10 +1575,11 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42942</v>
       </c>
@@ -1533,10 +1592,11 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>42943</v>
       </c>
@@ -1549,10 +1609,11 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="1:8" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:9" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42944</v>
       </c>
@@ -1564,13 +1625,14 @@
         <v>30</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="27"/>
       <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42945</v>
       </c>
@@ -1579,11 +1641,12 @@
         <v>Saturday</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42946</v>
       </c>
@@ -1592,11 +1655,12 @@
         <v>Sunday</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D49" s="4"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42947</v>
       </c>
@@ -1607,14 +1671,15 @@
       <c r="C50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="27"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>42948</v>
       </c>
@@ -1627,10 +1692,11 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="27"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>42949</v>
       </c>
@@ -1642,13 +1708,14 @@
         <v>31</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="27"/>
       <c r="G52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>42950</v>
       </c>
@@ -1659,14 +1726,15 @@
       <c r="C53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="31"/>
+      <c r="E53" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="27"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>42951</v>
       </c>
@@ -1677,12 +1745,13 @@
       <c r="C54" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="27"/>
-    </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42952</v>
       </c>
@@ -1691,10 +1760,11 @@
         <v>Saturday</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-    </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42953</v>
       </c>
@@ -1703,10 +1773,11 @@
         <v>Sunday</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D56" s="4"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>42954</v>
       </c>
@@ -1717,12 +1788,13 @@
       <c r="C57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>42955</v>
       </c>
@@ -1733,12 +1805,13 @@
       <c r="C58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>42956</v>
       </c>
@@ -1749,12 +1822,13 @@
       <c r="C59" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="27"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>42957</v>
       </c>
@@ -1765,12 +1839,13 @@
       <c r="C60" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="27"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>42958</v>
       </c>
@@ -1781,12 +1856,13 @@
       <c r="C61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="27"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="27"/>
-    </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42959</v>
       </c>
@@ -1795,10 +1871,11 @@
         <v>Saturday</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-    </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42960</v>
       </c>
@@ -1807,10 +1884,11 @@
         <v>Sunday</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>42961</v>
       </c>
@@ -1821,12 +1899,13 @@
       <c r="C64" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="27"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="27"/>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>42962</v>
       </c>
@@ -1837,12 +1916,13 @@
       <c r="C65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="27"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="27"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>42963</v>
       </c>
@@ -1853,12 +1933,13 @@
       <c r="C66" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="27"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="27"/>
-    </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>42964</v>
       </c>
@@ -1869,14 +1950,15 @@
       <c r="C67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="31"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F67" s="27"/>
       <c r="G67" s="27"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>42965</v>
       </c>
@@ -1887,12 +1969,13 @@
       <c r="C68" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="27"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="27"/>
-    </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42966</v>
       </c>
@@ -1900,10 +1983,10 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42967</v>
       </c>
@@ -1911,10 +1994,10 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>42968</v>
       </c>
@@ -1925,12 +2008,13 @@
       <c r="C71" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="27"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="27"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>42969</v>
       </c>
@@ -1941,12 +2025,13 @@
       <c r="C72" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="27"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="27"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>42970</v>
       </c>
@@ -1957,12 +2042,13 @@
       <c r="C73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="27"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="27"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>42971</v>
       </c>
@@ -1973,12 +2059,13 @@
       <c r="C74" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="27"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="27"/>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>42972</v>
       </c>
@@ -1989,12 +2076,13 @@
       <c r="C75" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="27"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="27"/>
-    </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42973</v>
       </c>
@@ -2003,10 +2091,11 @@
         <v>Saturday</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42974</v>
       </c>
@@ -2015,10 +2104,11 @@
         <v>Sunday</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>42975</v>
       </c>
@@ -2029,12 +2119,13 @@
       <c r="C78" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="27"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="27"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>42976</v>
       </c>
@@ -2045,12 +2136,13 @@
       <c r="C79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="27"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="27"/>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>42977</v>
       </c>
@@ -2061,14 +2153,15 @@
       <c r="C80" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="31"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="27"/>
       <c r="G80" s="27"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="27"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>42978</v>
       </c>
@@ -2079,12 +2172,13 @@
       <c r="C81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="27"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="27"/>
-    </row>
-    <row r="82" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>42979</v>
       </c>
@@ -2095,14 +2189,15 @@
       <c r="C82" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="31"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="27"/>
       <c r="G82" s="27"/>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42980</v>
       </c>
@@ -2111,10 +2206,11 @@
         <v>Saturday</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42981</v>
       </c>
@@ -2123,10 +2219,11 @@
         <v>Sunday</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
-    </row>
-    <row r="85" spans="1:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>42982</v>
       </c>
@@ -2137,12 +2234,13 @@
       <c r="C85" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="11"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="27"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="27"/>
-    </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>42983</v>
       </c>
@@ -2153,14 +2251,15 @@
       <c r="C86" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="27"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="27"/>
-    </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>42984</v>
       </c>
@@ -2173,10 +2272,11 @@
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="27"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="27"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>42985</v>
       </c>
@@ -2189,10 +2289,11 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="27"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="27"/>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>42986</v>
       </c>
@@ -2205,10 +2306,11 @@
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="27"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="27"/>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42987</v>
       </c>
@@ -2217,10 +2319,11 @@
         <v>Saturday</v>
       </c>
       <c r="C90" s="4"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="29"/>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="4"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42988</v>
       </c>
@@ -2229,10 +2332,11 @@
         <v>Sunday</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="29"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>42989</v>
       </c>
@@ -2245,10 +2349,11 @@
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="27"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="27"/>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>42990</v>
       </c>
@@ -2261,10 +2366,11 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="27"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="27"/>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H93" s="27"/>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>42991</v>
       </c>
@@ -2277,10 +2383,11 @@
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="27"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="27"/>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H94" s="27"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>42992</v>
       </c>
@@ -2293,10 +2400,11 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="27"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="27"/>
-    </row>
-    <row r="96" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="27"/>
+    </row>
+    <row r="96" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>42993</v>
       </c>
@@ -2308,13 +2416,14 @@
         <v>65</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F96" s="27"/>
       <c r="G96" s="27"/>
-    </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="27"/>
+    </row>
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42994</v>
       </c>
@@ -2323,10 +2432,11 @@
         <v>Saturday</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
-    </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42995</v>
       </c>
@@ -2335,10 +2445,11 @@
         <v>Sunday</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="29"/>
-    </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="29"/>
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>42996</v>
       </c>
@@ -2349,14 +2460,15 @@
       <c r="C99" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="27"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="27"/>
-    </row>
-    <row r="100" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H99" s="27"/>
+    </row>
+    <row r="100" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>42997</v>
       </c>
@@ -2368,13 +2480,14 @@
         <v>68</v>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="17"/>
+      <c r="F100" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="27"/>
       <c r="G100" s="27"/>
-    </row>
-    <row r="101" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H100" s="27"/>
+    </row>
+    <row r="101" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>42998</v>
       </c>
@@ -2387,10 +2500,11 @@
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="27"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="27"/>
-    </row>
-    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H101" s="27"/>
+    </row>
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>42999</v>
       </c>
@@ -2399,14 +2513,15 @@
         <v>Thursday</v>
       </c>
       <c r="C102" s="7"/>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="7"/>
+      <c r="E102" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="27"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="27"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="27"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>43000</v>
       </c>
@@ -2417,10 +2532,11 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="27"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="27"/>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="27"/>
+    </row>
+    <row r="104" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43001</v>
       </c>
@@ -2429,10 +2545,11 @@
         <v>Saturday</v>
       </c>
       <c r="C104" s="4"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="29"/>
-    </row>
-    <row r="105" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="29"/>
+    </row>
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43002</v>
       </c>
@@ -2441,10 +2558,11 @@
         <v>Sunday</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="29"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>43003</v>
       </c>
@@ -2455,10 +2573,11 @@
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="27"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="27"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="27"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>43004</v>
       </c>
@@ -2469,10 +2588,11 @@
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="27"/>
+      <c r="F107" s="7"/>
       <c r="G107" s="27"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>43005</v>
       </c>
@@ -2483,10 +2603,11 @@
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="27"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="27"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>43006</v>
       </c>
@@ -2497,10 +2618,11 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="27"/>
+      <c r="F109" s="7"/>
       <c r="G109" s="27"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>43007</v>
       </c>
@@ -2511,10 +2633,11 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="27"/>
+      <c r="F110" s="7"/>
       <c r="G110" s="27"/>
-    </row>
-    <row r="111" spans="1:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="27"/>
+    </row>
+    <row r="111" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43008</v>
       </c>
@@ -2525,6 +2648,7 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B111">
@@ -2539,9 +2663,9 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="F2:F110"/>
+    <mergeCell ref="F3:F12"/>
     <mergeCell ref="G2:G110"/>
+    <mergeCell ref="H2:H110"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B111">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Checkbox design of unsolicited response </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data population in all input boxes - both basic and advanced search </t>
   </si>
   <si>
     <t>Reports page layout</t>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>State ( Green is done, yellow is not required )</t>
+  </si>
+  <si>
+    <t>Data population in all input boxes - availble in an JS object to make searches.</t>
   </si>
 </sst>
 </file>
@@ -386,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,12 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -496,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -511,10 +508,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -846,25 +846,25 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="15.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -872,22 +872,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,16 +899,16 @@
         <v>Tuesday</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="D2" s="15"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>79</v>
+      <c r="G2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -924,11 +924,11 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="F3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -941,11 +941,11 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -958,11 +958,11 @@
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -972,9 +972,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,9 +985,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,11 +1001,11 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1018,11 +1018,11 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1035,11 +1035,11 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1052,11 +1052,11 @@
       <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1069,11 +1069,11 @@
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1087,8 +1087,8 @@
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,8 +1101,8 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1116,11 +1116,11 @@
       <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1133,11 +1133,11 @@
       <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1148,13 +1148,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1170,8 +1170,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1187,8 +1187,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1202,8 +1202,8 @@
         <v>10</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,8 +1214,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,8 +1232,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1249,8 +1249,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1266,8 +1266,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1280,11 +1280,11 @@
       <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1297,11 +1297,11 @@
       <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1311,8 +1311,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,8 +1323,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,11 +1338,11 @@
       <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1358,8 +1358,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1375,8 +1375,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1392,8 +1392,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1406,11 +1406,11 @@
       <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1420,8 +1420,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,8 +1432,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1447,11 +1447,11 @@
       <c r="C36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1464,11 +1464,11 @@
       <c r="C37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1481,11 +1481,11 @@
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1501,8 +1501,8 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1518,8 +1518,8 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1529,8 +1529,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,8 +1541,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1559,8 +1559,8 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1571,13 +1571,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1588,13 +1588,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1605,15 +1605,15 @@
         <v>Thursday</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:9" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>42944</v>
       </c>
@@ -1622,15 +1622,15 @@
         <v>Friday</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1642,8 +1642,8 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,8 +1656,8 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1669,15 +1669,15 @@
         <v>Monday</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1688,15 +1688,15 @@
         <v>Tuesday</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:9" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>42949</v>
       </c>
@@ -1705,15 +1705,15 @@
         <v>Wednesday</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+        <v>32</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1724,15 +1724,15 @@
         <v>Thursday</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1743,13 +1743,13 @@
         <v>Friday</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D54" s="23"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1761,8 +1761,8 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1774,8 +1774,8 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1786,13 +1786,13 @@
         <v>Monday</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="31"/>
+        <v>34</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1803,13 +1803,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="D58" s="23"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1820,13 +1820,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1837,13 +1837,13 @@
         <v>Thursday</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="D60" s="23"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1854,13 +1854,13 @@
         <v>Friday</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="31"/>
+        <v>38</v>
+      </c>
+      <c r="D61" s="23"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1872,8 +1872,8 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1885,8 +1885,8 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1897,13 +1897,13 @@
         <v>Monday</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="D64" s="23"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1914,13 +1914,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="D65" s="23"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1931,13 +1931,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="D66" s="23"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -1948,15 +1948,15 @@
         <v>Thursday</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -1967,13 +1967,13 @@
         <v>Friday</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="D68" s="23"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1983,8 +1983,8 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1994,8 +1994,8 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -2006,13 +2006,13 @@
         <v>Monday</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="D71" s="23"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -2023,13 +2023,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="D72" s="23"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -2040,13 +2040,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="D73" s="23"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -2057,13 +2057,13 @@
         <v>Thursday</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="D74" s="23"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -2074,13 +2074,13 @@
         <v>Friday</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="31"/>
+        <v>43</v>
+      </c>
+      <c r="D75" s="23"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
     </row>
     <row r="76" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -2092,8 +2092,8 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -2105,8 +2105,8 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -2117,13 +2117,13 @@
         <v>Monday</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="31"/>
+        <v>44</v>
+      </c>
+      <c r="D78" s="23"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -2134,13 +2134,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="D79" s="23"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -2151,15 +2151,15 @@
         <v>Wednesday</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -2170,15 +2170,15 @@
         <v>Thursday</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="D81" s="23"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-    </row>
-    <row r="82" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>42979</v>
       </c>
@@ -2187,15 +2187,15 @@
         <v>Friday</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="D82" s="23"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -2207,8 +2207,8 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="29"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2220,10 +2220,10 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>42982</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>Monday</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="D85" s="23"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2249,15 +2249,15 @@
         <v>Tuesday</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -2268,13 +2268,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2285,13 +2285,13 @@
         <v>Thursday</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -2302,13 +2302,13 @@
         <v>Friday</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -2320,8 +2320,8 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -2333,8 +2333,8 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2345,13 +2345,13 @@
         <v>Monday</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -2362,13 +2362,13 @@
         <v>Tuesday</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -2379,13 +2379,13 @@
         <v>Wednesday</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2396,15 +2396,15 @@
         <v>Thursday</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-    </row>
-    <row r="96" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+    </row>
+    <row r="96" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>42993</v>
       </c>
@@ -2413,15 +2413,15 @@
         <v>Friday</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -2433,8 +2433,8 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="29"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="28"/>
     </row>
     <row r="98" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -2446,8 +2446,8 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="29"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2458,51 +2458,51 @@
         <v>Monday</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-    </row>
-    <row r="100" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+    </row>
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
         <v>42997</v>
       </c>
-      <c r="B100" s="16" t="str">
+      <c r="B100" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-    </row>
-    <row r="101" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+    </row>
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
         <v>42998</v>
       </c>
-      <c r="B101" s="16" t="str">
+      <c r="B101" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
+      <c r="C101" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -2515,11 +2515,11 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -2533,8 +2533,8 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2546,8 +2546,8 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="29"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="28"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -2559,8 +2559,8 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="29"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="28"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -2574,8 +2574,8 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
@@ -2589,8 +2589,8 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2604,8 +2604,8 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -2619,8 +2619,8 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -2634,8 +2634,8 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,6 +493,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -506,15 +518,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -846,8 +849,8 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G110"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,10 +907,10 @@
       <c r="D2" s="15"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -924,11 +927,11 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -943,9 +946,9 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -960,9 +963,9 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -972,9 +975,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,9 +988,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,9 +1006,9 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1020,9 +1023,9 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1037,9 +1040,9 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1054,9 +1057,9 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1071,9 +1074,9 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1087,8 +1090,8 @@
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,8 +1104,8 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,8 +1122,8 @@
       <c r="D15" s="23"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1136,8 +1139,8 @@
       <c r="D16" s="23"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1153,8 +1156,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1167,11 +1170,11 @@
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1187,8 +1190,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1202,8 +1205,8 @@
         <v>10</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,8 +1217,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,8 +1235,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1249,8 +1252,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1266,8 +1269,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1283,8 +1286,8 @@
       <c r="D25" s="23"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1300,8 +1303,8 @@
       <c r="D26" s="23"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1311,8 +1314,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,8 +1326,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1341,8 +1344,8 @@
       <c r="D29" s="23"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1358,8 +1361,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1375,8 +1378,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1392,8 +1395,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1409,8 +1412,8 @@
       <c r="D33" s="15"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1420,8 +1423,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,8 +1435,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,8 +1453,8 @@
       <c r="D36" s="15"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1467,8 +1470,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1481,11 +1484,11 @@
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1501,8 +1504,8 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1518,8 +1521,8 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1529,8 +1532,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,8 +1544,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1559,8 +1562,8 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1576,8 +1579,8 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1593,8 +1596,8 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1610,8 +1613,8 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:9" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
@@ -1629,8 +1632,8 @@
       <c r="F47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1642,8 +1645,8 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,8 +1659,8 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1676,8 +1679,8 @@
         <v>70</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1693,8 +1696,8 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
@@ -1712,8 +1715,8 @@
       <c r="F52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1731,8 +1734,8 @@
         <v>69</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1748,8 +1751,8 @@
       <c r="D54" s="23"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1761,8 +1764,8 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1774,8 +1777,8 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1791,8 +1794,8 @@
       <c r="D57" s="23"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1808,8 +1811,8 @@
       <c r="D58" s="23"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1825,8 +1828,8 @@
       <c r="D59" s="23"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1842,8 +1845,8 @@
       <c r="D60" s="23"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1859,8 +1862,8 @@
       <c r="D61" s="23"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1872,8 +1875,8 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="32"/>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1885,8 +1888,8 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1902,8 +1905,8 @@
       <c r="D64" s="23"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1919,8 +1922,8 @@
       <c r="D65" s="23"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1936,8 +1939,8 @@
       <c r="D66" s="23"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -1955,8 +1958,8 @@
       <c r="F67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -1972,8 +1975,8 @@
       <c r="D68" s="23"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1983,8 +1986,8 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="32"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1994,8 +1997,8 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -2011,8 +2014,8 @@
       <c r="D71" s="23"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -2028,8 +2031,8 @@
       <c r="D72" s="23"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -2045,8 +2048,8 @@
       <c r="D73" s="23"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -2062,8 +2065,8 @@
       <c r="D74" s="23"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -2079,8 +2082,8 @@
       <c r="D75" s="23"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -2092,8 +2095,8 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -2105,8 +2108,8 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -2122,8 +2125,8 @@
       <c r="D78" s="23"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -2139,8 +2142,8 @@
       <c r="D79" s="23"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -2158,8 +2161,8 @@
       <c r="F80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -2175,8 +2178,8 @@
       <c r="D81" s="23"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
     </row>
     <row r="82" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
@@ -2194,8 +2197,8 @@
       <c r="F82" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -2207,8 +2210,8 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2220,8 +2223,8 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
@@ -2237,8 +2240,8 @@
       <c r="D85" s="23"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2256,8 +2259,8 @@
         <v>71</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
     </row>
     <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -2273,8 +2276,8 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2290,8 +2293,8 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -2307,8 +2310,8 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -2320,8 +2323,8 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -2333,8 +2336,8 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="28"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2350,8 +2353,8 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -2367,8 +2370,8 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -2384,8 +2387,8 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2401,8 +2404,8 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
@@ -2420,8 +2423,8 @@
       <c r="F96" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -2433,8 +2436,8 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="28"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -2446,8 +2449,8 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="28"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2465,44 +2468,44 @@
         <v>81</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
+      <c r="A100" s="26">
         <v>42997</v>
       </c>
-      <c r="B100" s="31" t="str">
+      <c r="B100" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29" t="s">
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
+      <c r="A101" s="26">
         <v>42998</v>
       </c>
-      <c r="B101" s="31" t="str">
+      <c r="B101" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -2518,8 +2521,8 @@
         <v>80</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -2533,8 +2536,8 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2546,8 +2549,8 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="28"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="32"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -2559,8 +2562,8 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="28"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="32"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -2574,8 +2577,8 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
@@ -2589,8 +2592,8 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2604,8 +2607,8 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -2619,8 +2622,8 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -2634,8 +2637,8 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -491,9 +491,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,8 +846,8 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +904,10 @@
       <c r="D2" s="15"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -927,11 +924,11 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -946,9 +943,9 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -963,9 +960,9 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -975,9 +972,9 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,9 +985,9 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1006,9 +1003,9 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1023,9 +1020,9 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1040,9 +1037,9 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1057,9 +1054,9 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1074,9 +1071,9 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1090,8 +1087,8 @@
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,8 +1101,8 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1122,8 +1119,8 @@
       <c r="D15" s="23"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1139,8 +1136,8 @@
       <c r="D16" s="23"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1156,8 +1153,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1173,8 +1170,8 @@
       <c r="D18" s="15"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1190,8 +1187,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1205,8 +1202,8 @@
         <v>10</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,8 +1214,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,8 +1232,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1252,8 +1249,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1269,8 +1266,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1286,8 +1283,8 @@
       <c r="D25" s="23"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1303,8 +1300,8 @@
       <c r="D26" s="23"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1314,8 +1311,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,8 +1323,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1344,8 +1341,8 @@
       <c r="D29" s="23"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1361,8 +1358,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1378,8 +1375,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1395,8 +1392,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1412,8 +1409,8 @@
       <c r="D33" s="15"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1423,8 +1420,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,8 +1432,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,8 +1450,8 @@
       <c r="D36" s="15"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -1470,8 +1467,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
@@ -1484,11 +1481,11 @@
       <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -1504,8 +1501,8 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1521,8 +1518,8 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1532,8 +1529,8 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,8 +1541,8 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1562,8 +1559,8 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1579,8 +1576,8 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
@@ -1596,8 +1593,8 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
@@ -1613,8 +1610,8 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="1:9" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
@@ -1632,8 +1629,8 @@
       <c r="F47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1645,8 +1642,8 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1659,8 +1656,8 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1679,8 +1676,8 @@
         <v>70</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
@@ -1696,8 +1693,8 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
@@ -1715,8 +1712,8 @@
       <c r="F52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
@@ -1734,8 +1731,8 @@
         <v>69</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
@@ -1751,8 +1748,8 @@
       <c r="D54" s="23"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1764,8 +1761,8 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1777,8 +1774,8 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
@@ -1794,8 +1791,8 @@
       <c r="D57" s="23"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1811,8 +1808,8 @@
       <c r="D58" s="23"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1828,8 +1825,8 @@
       <c r="D59" s="23"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
@@ -1845,8 +1842,8 @@
       <c r="D60" s="23"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1862,8 +1859,8 @@
       <c r="D61" s="23"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1875,8 +1872,8 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="32"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31"/>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1888,8 +1885,8 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
@@ -1905,8 +1902,8 @@
       <c r="D64" s="23"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
@@ -1922,8 +1919,8 @@
       <c r="D65" s="23"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -1939,8 +1936,8 @@
       <c r="D66" s="23"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -1958,8 +1955,8 @@
       <c r="F67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -1975,8 +1972,8 @@
       <c r="D68" s="23"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1986,8 +1983,8 @@
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="32"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1997,8 +1994,8 @@
         <f t="shared" si="1"/>
         <v>Sunday</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="32"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
@@ -2014,8 +2011,8 @@
       <c r="D71" s="23"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -2031,8 +2028,8 @@
       <c r="D72" s="23"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
@@ -2048,8 +2045,8 @@
       <c r="D73" s="23"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -2065,8 +2062,8 @@
       <c r="D74" s="23"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -2082,8 +2079,8 @@
       <c r="D75" s="23"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -2095,8 +2092,8 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="32"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="31"/>
     </row>
     <row r="77" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -2108,8 +2105,8 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="32"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="31"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -2125,8 +2122,8 @@
       <c r="D78" s="23"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
@@ -2142,8 +2139,8 @@
       <c r="D79" s="23"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -2161,8 +2158,8 @@
       <c r="F80" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
@@ -2178,8 +2175,8 @@
       <c r="D81" s="23"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
@@ -2197,8 +2194,8 @@
       <c r="F82" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -2210,8 +2207,8 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="32"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2223,8 +2220,8 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="32"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
@@ -2240,8 +2237,8 @@
       <c r="D85" s="23"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -2259,8 +2256,8 @@
         <v>71</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
@@ -2276,8 +2273,8 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -2293,8 +2290,8 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
@@ -2310,8 +2307,8 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -2323,8 +2320,8 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="32"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -2336,8 +2333,8 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="32"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="31"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -2353,8 +2350,8 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -2370,8 +2367,8 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -2387,8 +2384,8 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2404,8 +2401,8 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
     </row>
     <row r="96" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
@@ -2423,8 +2420,8 @@
       <c r="F96" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
     </row>
     <row r="97" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -2436,8 +2433,8 @@
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="32"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -2449,8 +2446,8 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="32"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="31"/>
     </row>
     <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
@@ -2468,44 +2465,44 @@
         <v>81</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
+      <c r="A100" s="25">
         <v>42997</v>
       </c>
-      <c r="B100" s="27" t="str">
+      <c r="B100" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="1:8" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="26">
+      <c r="A101" s="25">
         <v>42998</v>
       </c>
-      <c r="B101" s="27" t="str">
+      <c r="B101" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
@@ -2521,8 +2518,8 @@
         <v>80</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
@@ -2536,8 +2533,8 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2549,8 +2546,8 @@
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="32"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="31"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -2562,8 +2559,8 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="32"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="31"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
@@ -2577,8 +2574,8 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
@@ -2592,8 +2589,8 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
@@ -2607,8 +2604,8 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
@@ -2622,8 +2619,8 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
@@ -2637,8 +2634,8 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Data population in all input boxes - availble in an JS object to make searches.</t>
+  </si>
+  <si>
+    <t>Message Box of error design</t>
   </si>
 </sst>
 </file>
@@ -846,8 +849,8 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,9 +1230,9 @@
         <v>Monday</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="29"/>

--- a/docs/dev-plan-draft.xlsx
+++ b/docs/dev-plan-draft.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -849,8 +849,8 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
